--- a/DateBase/orders/DANG Nguyen_2024-10-16.xlsx
+++ b/DateBase/orders/DANG Nguyen_2024-10-16.xlsx
@@ -1264,6 +1264,9 @@
       <c r="G2" t="str">
         <v>0302010101010101010101010201020101052020560203010101014424107967109152061413153511315981520181516827183010914911155860345146820191051091301025101020710355010</v>
       </c>
+      <c r="H2" t="str">
+        <v>CNY</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
